--- a/Control_de_lectura/SI2019_Control de lectura.xlsx
+++ b/Control_de_lectura/SI2019_Control de lectura.xlsx
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,13 +778,21 @@
       <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="28">
+        <v>9</v>
+      </c>
+      <c r="E15" s="25">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29">
+        <v>10</v>
+      </c>
       <c r="G15" s="23">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I15"/>
     </row>
@@ -795,13 +803,21 @@
       <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12">
+        <v>9</v>
+      </c>
+      <c r="F16" s="19">
+        <v>10</v>
+      </c>
       <c r="G16" s="12">
         <f>SUM(C16:F16)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,13 +827,19 @@
       <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="26">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G38" si="2">SUM(C17:F17)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">

--- a/Control_de_lectura/SI2019_Control de lectura.xlsx
+++ b/Control_de_lectura/SI2019_Control de lectura.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye v0.3\SI2019_Aplicaciones1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +836,12 @@
       <c r="E17" s="12">
         <v>10</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="19">
+        <v>8</v>
+      </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G38" si="2">SUM(C17:F17)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
